--- a/SupplementTable1.xlsx
+++ b/SupplementTable1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dshipilina/GitHub/VanessaExpression/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888959E3-ED4E-A649-A2F6-EC51C34EAAE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071259EB-7022-E74E-BC75-8E3AF71546A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6500" yWindow="460" windowWidth="21640" windowHeight="16220" firstSheet="7" activeTab="9" xr2:uid="{30A1C37D-BEF2-F64F-964C-393F250EFED1}"/>
+    <workbookView xWindow="2160" yWindow="460" windowWidth="25980" windowHeight="16220" firstSheet="6" activeTab="10" xr2:uid="{30A1C37D-BEF2-F64F-964C-393F250EFED1}"/>
   </bookViews>
   <sheets>
     <sheet name="Supplementary Table 1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4490" uniqueCount="1205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4538" uniqueCount="1227">
   <si>
     <t>Sample Name</t>
   </si>
@@ -3500,9 +3500,6 @@
     <t>Goterm abdomen HDLD</t>
   </si>
   <si>
-    <t>candidate genes</t>
-  </si>
-  <si>
     <t>GO:0051491</t>
   </si>
   <si>
@@ -3879,6 +3876,98 @@
   </si>
   <si>
     <t>sterol transport</t>
+  </si>
+  <si>
+    <t>Vcard_DToL06730</t>
+  </si>
+  <si>
+    <t>neural cell adhesion molecule</t>
+  </si>
+  <si>
+    <t>Vcard_DToL07612</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>peptidoglycan-recognition protein</t>
+  </si>
+  <si>
+    <t>Vcard_DToL09009</t>
+  </si>
+  <si>
+    <t>hemocytin</t>
+  </si>
+  <si>
+    <t>Vcard_DToL09011</t>
+  </si>
+  <si>
+    <t>Vcard_DToL17607</t>
+  </si>
+  <si>
+    <t>chitinase</t>
+  </si>
+  <si>
+    <t>Vcard_DToL18414</t>
+  </si>
+  <si>
+    <t>D-arabinitol dehydrogenase</t>
+  </si>
+  <si>
+    <t>Vcard_DToL04008</t>
+  </si>
+  <si>
+    <t>E3 SUMO-protein ligase</t>
+  </si>
+  <si>
+    <t>Vcard_DToL04786</t>
+  </si>
+  <si>
+    <t>pickpocket</t>
+  </si>
+  <si>
+    <t>Vcard_DToL06310</t>
+  </si>
+  <si>
+    <t>Vcard_DToL15410</t>
+  </si>
+  <si>
+    <t>Vcard_DToL16791</t>
+  </si>
+  <si>
+    <t>trehalose transporter Tret1-2</t>
+  </si>
+  <si>
+    <t>Vcard_DToL17225</t>
+  </si>
+  <si>
+    <t>NADH dehydrogenase ubiquinone</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Supplementary Table 10. Results of the larval density experiment across developmental stages of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>V.cardui</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Top outlier candidate genes (log2FoldChange &gt; 2, FDR-adjusted  p-value &lt; 0.01) exhibiting differential expression are shown.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -7911,13 +8000,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71ABA50F-9E5D-834F-B8D1-7FE0E1051AE9}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="38.5" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="76.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -7925,32 +8015,32 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" s="26" customFormat="1">
+      <c r="A3" s="26" t="s">
         <v>549</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="26" t="s">
         <v>550</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="26" t="s">
         <v>551</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="26" t="s">
         <v>819</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="26" t="s">
         <v>553</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="26" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B4" t="s">
         <v>1095</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1096</v>
       </c>
       <c r="C4">
         <v>54</v>
@@ -7967,10 +8057,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B5" t="s">
         <v>1151</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1152</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -7987,10 +8077,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B6" t="s">
         <v>1153</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1154</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -8007,10 +8097,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B7" t="s">
         <v>1155</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1156</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -8027,10 +8117,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B8" t="s">
         <v>1101</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1102</v>
       </c>
       <c r="C8">
         <v>9</v>
@@ -8047,10 +8137,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B9" t="s">
         <v>1079</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1080</v>
       </c>
       <c r="C9">
         <v>58</v>
@@ -8087,10 +8177,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B11" t="s">
         <v>1157</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1158</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -8107,10 +8197,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B12" t="s">
         <v>1133</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1134</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -8147,10 +8237,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B14" t="s">
         <v>1159</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1160</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -8167,10 +8257,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B15" t="s">
         <v>1161</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1162</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -8227,10 +8317,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B18" t="s">
         <v>1163</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1164</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -8247,10 +8337,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B19" t="s">
         <v>1165</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1166</v>
       </c>
       <c r="C19">
         <v>62</v>
@@ -8267,10 +8357,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B20" t="s">
         <v>1167</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1168</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -8287,10 +8377,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B21" t="s">
         <v>1123</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1124</v>
       </c>
       <c r="C21">
         <v>21</v>
@@ -8307,10 +8397,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B22" t="s">
         <v>1169</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1170</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -8327,10 +8417,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B23" t="s">
         <v>1171</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1172</v>
       </c>
       <c r="C23">
         <v>7</v>
@@ -8347,10 +8437,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B24" t="s">
         <v>1173</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1174</v>
       </c>
       <c r="C24">
         <v>7</v>
@@ -8367,10 +8457,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B25" t="s">
         <v>1175</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1176</v>
       </c>
       <c r="C25">
         <v>7</v>
@@ -8387,10 +8477,10 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B26" t="s">
         <v>1177</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1178</v>
       </c>
       <c r="C26">
         <v>7</v>
@@ -8407,10 +8497,10 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B27" t="s">
         <v>1179</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1180</v>
       </c>
       <c r="C27">
         <v>43</v>
@@ -8427,10 +8517,10 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B28" t="s">
         <v>1181</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1182</v>
       </c>
       <c r="C28">
         <v>23</v>
@@ -8447,10 +8537,10 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B29" t="s">
         <v>1183</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1184</v>
       </c>
       <c r="C29">
         <v>24</v>
@@ -8467,10 +8557,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B30" t="s">
         <v>1185</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1186</v>
       </c>
       <c r="C30">
         <v>8</v>
@@ -8507,10 +8597,10 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B32" t="s">
         <v>1187</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1188</v>
       </c>
       <c r="C32">
         <v>8</v>
@@ -8527,10 +8617,10 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B33" t="s">
         <v>1189</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1190</v>
       </c>
       <c r="C33">
         <v>8</v>
@@ -8547,10 +8637,10 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B34" t="s">
         <v>1191</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1192</v>
       </c>
       <c r="C34">
         <v>8</v>
@@ -8567,10 +8657,10 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B35" t="s">
         <v>1193</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1194</v>
       </c>
       <c r="C35">
         <v>8</v>
@@ -8587,10 +8677,10 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B36" t="s">
         <v>1195</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1196</v>
       </c>
       <c r="C36">
         <v>8</v>
@@ -8607,10 +8697,10 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B37" t="s">
         <v>1197</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1198</v>
       </c>
       <c r="C37">
         <v>25</v>
@@ -8627,10 +8717,10 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B38" t="s">
         <v>1199</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1200</v>
       </c>
       <c r="C38">
         <v>52</v>
@@ -8647,10 +8737,10 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B39" t="s">
         <v>1103</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1104</v>
       </c>
       <c r="C39">
         <v>9</v>
@@ -8667,10 +8757,10 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B40" t="s">
         <v>1201</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1202</v>
       </c>
       <c r="C40">
         <v>9</v>
@@ -8687,10 +8777,10 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B41" t="s">
         <v>1203</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1204</v>
       </c>
       <c r="C41">
         <v>86</v>
@@ -8712,17 +8802,425 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66DABA85-FBF8-E644-A045-29CCC6786931}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>1078</v>
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="26" customFormat="1">
+      <c r="A3" s="26" t="s">
+        <v>969</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>970</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C4">
+        <v>60.236651267395999</v>
+      </c>
+      <c r="D4">
+        <v>-2.3246645495421601</v>
+      </c>
+      <c r="E4">
+        <v>0.56867640321405899</v>
+      </c>
+      <c r="F4">
+        <v>-4.0878512567139502</v>
+      </c>
+      <c r="G4" s="24">
+        <v>4.3538715102760497E-5</v>
+      </c>
+      <c r="H4">
+        <v>4.7985931077597299E-2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C5">
+        <v>3.9163000669847499</v>
+      </c>
+      <c r="D5">
+        <v>18.155418728739502</v>
+      </c>
+      <c r="E5">
+        <v>3.33970379832803</v>
+      </c>
+      <c r="F5">
+        <v>5.4362362128727497</v>
+      </c>
+      <c r="G5" s="24">
+        <v>5.4417803477383697E-8</v>
+      </c>
+      <c r="H5">
+        <v>4.5542459361292E-4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>745</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C6">
+        <v>59.747803425409401</v>
+      </c>
+      <c r="D6">
+        <v>-4.3307243990210296</v>
+      </c>
+      <c r="E6">
+        <v>0.80556148559816998</v>
+      </c>
+      <c r="F6">
+        <v>-5.3760320924544303</v>
+      </c>
+      <c r="G6" s="24">
+        <v>7.6145225482848994E-8</v>
+      </c>
+      <c r="H6">
+        <v>4.5542459361292E-4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C7">
+        <v>145.64739907263001</v>
+      </c>
+      <c r="D7">
+        <v>-2.0500561569423001</v>
+      </c>
+      <c r="E7">
+        <v>0.45491519952048398</v>
+      </c>
+      <c r="F7">
+        <v>-4.5064578169804399</v>
+      </c>
+      <c r="G7" s="24">
+        <v>6.5918782511678196E-6</v>
+      </c>
+      <c r="H7">
+        <v>1.9713011910117401E-2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C8">
+        <v>52.005147115040899</v>
+      </c>
+      <c r="D8">
+        <v>-2.5579494435685599</v>
+      </c>
+      <c r="E8">
+        <v>0.62184413824914198</v>
+      </c>
+      <c r="F8">
+        <v>-4.11348967728585</v>
+      </c>
+      <c r="G8" s="24">
+        <v>3.8972247600920499E-5</v>
+      </c>
+      <c r="H8">
+        <v>4.7985931077597299E-2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C9">
+        <v>161.71164016960799</v>
+      </c>
+      <c r="D9">
+        <v>-2.43753924146211</v>
+      </c>
+      <c r="E9">
+        <v>0.560881369048156</v>
+      </c>
+      <c r="F9">
+        <v>-4.3459087357434196</v>
+      </c>
+      <c r="G9" s="24">
+        <v>1.3870023340998701E-5</v>
+      </c>
+      <c r="H9">
+        <v>2.2184861550830801E-2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C10">
+        <v>158.734616936349</v>
+      </c>
+      <c r="D10">
+        <v>-3.0494646817263198</v>
+      </c>
+      <c r="E10">
+        <v>0.74655111460415202</v>
+      </c>
+      <c r="F10">
+        <v>-4.0847366269665999</v>
+      </c>
+      <c r="G10" s="24">
+        <v>4.4126838476305799E-5</v>
+      </c>
+      <c r="H10">
+        <v>4.7985931077597299E-2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C11">
+        <v>17.550808102192601</v>
+      </c>
+      <c r="D11">
+        <v>30</v>
+      </c>
+      <c r="E11">
+        <v>3.365741214257</v>
+      </c>
+      <c r="F11">
+        <v>8.9133412494467805</v>
+      </c>
+      <c r="G11" s="24">
+        <v>4.9517284320640896E-19</v>
+      </c>
+      <c r="H11" s="24">
+        <v>5.6930021783440899E-15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C12">
+        <v>13.590573057247701</v>
+      </c>
+      <c r="D12">
+        <v>-6.0717990511292204</v>
+      </c>
+      <c r="E12">
+        <v>1.2585311905075001</v>
+      </c>
+      <c r="F12">
+        <v>-4.8245121749273396</v>
+      </c>
+      <c r="G12" s="24">
+        <v>1.40346344756417E-6</v>
+      </c>
+      <c r="H12">
+        <v>2.68926987610755E-3</v>
+      </c>
+      <c r="I12" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C13">
+        <v>6.7267888383632002</v>
+      </c>
+      <c r="D13">
+        <v>18.3535332693268</v>
+      </c>
+      <c r="E13">
+        <v>3.40548217486741</v>
+      </c>
+      <c r="F13">
+        <v>5.3894081151787097</v>
+      </c>
+      <c r="G13" s="24">
+        <v>7.0690110849995096E-8</v>
+      </c>
+      <c r="H13">
+        <v>2.0318105111059799E-4</v>
+      </c>
+      <c r="I13" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B14" t="s">
+        <v>449</v>
+      </c>
+      <c r="C14">
+        <v>3.26708179107401</v>
+      </c>
+      <c r="D14">
+        <v>-21.068654580514401</v>
+      </c>
+      <c r="E14">
+        <v>3.3904389616554398</v>
+      </c>
+      <c r="F14">
+        <v>-6.2141377027555498</v>
+      </c>
+      <c r="G14" s="24">
+        <v>5.1607257035134996E-10</v>
+      </c>
+      <c r="H14" s="24">
+        <v>2.9666431706647301E-6</v>
+      </c>
+      <c r="I14" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C15">
+        <v>2.4381145466760401</v>
+      </c>
+      <c r="D15">
+        <v>17.6938513074819</v>
+      </c>
+      <c r="E15">
+        <v>3.4113758785706199</v>
+      </c>
+      <c r="F15">
+        <v>5.1867199444746204</v>
+      </c>
+      <c r="G15" s="24">
+        <v>2.14030215307018E-7</v>
+      </c>
+      <c r="H15">
+        <v>4.9214107707695699E-4</v>
+      </c>
+      <c r="I15" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C16">
+        <v>1.1934989973040899</v>
+      </c>
+      <c r="D16">
+        <v>-19.209698784309602</v>
+      </c>
+      <c r="E16">
+        <v>3.3814931776085402</v>
+      </c>
+      <c r="F16">
+        <v>-5.6808332222912004</v>
+      </c>
+      <c r="G16" s="24">
+        <v>1.34040132300198E-8</v>
+      </c>
+      <c r="H16" s="24">
+        <v>5.1368646701845998E-5</v>
+      </c>
+      <c r="I16" t="s">
+        <v>512</v>
       </c>
     </row>
   </sheetData>
@@ -36794,8 +37292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE5509E-637A-F742-B298-F8EB60123756}">
   <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -38851,43 +39349,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F1C002-E574-6E4C-8652-869E7B8A1E74}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="67" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>1076</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" s="26" customFormat="1">
+      <c r="A3" s="26" t="s">
         <v>549</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="26" t="s">
         <v>550</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="26" t="s">
         <v>551</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="26" t="s">
         <v>819</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="26" t="s">
         <v>553</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="26" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B4" t="s">
         <v>1079</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1080</v>
       </c>
       <c r="C4">
         <v>58</v>
@@ -38944,10 +39446,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B7" t="s">
         <v>1081</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1082</v>
       </c>
       <c r="C7">
         <v>13</v>
@@ -38984,10 +39486,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B9" t="s">
         <v>1083</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1084</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -39004,10 +39506,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B10" t="s">
         <v>1085</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1086</v>
       </c>
       <c r="C10">
         <v>53</v>
@@ -39024,10 +39526,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B11" t="s">
         <v>1087</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1088</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -39064,10 +39566,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B13" t="s">
         <v>1089</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1090</v>
       </c>
       <c r="C13">
         <v>37</v>
@@ -39084,10 +39586,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B14" t="s">
         <v>1091</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1092</v>
       </c>
       <c r="C14">
         <v>16</v>
@@ -39104,10 +39606,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B15" t="s">
         <v>1093</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1094</v>
       </c>
       <c r="C15">
         <v>60</v>
@@ -39144,10 +39646,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B17" t="s">
         <v>1095</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1096</v>
       </c>
       <c r="C17">
         <v>54</v>
@@ -39164,10 +39666,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B18" t="s">
         <v>1097</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1098</v>
       </c>
       <c r="C18">
         <v>297</v>
@@ -39204,10 +39706,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B20" t="s">
         <v>1099</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1100</v>
       </c>
       <c r="C20">
         <v>18</v>
@@ -39224,10 +39726,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B21" t="s">
         <v>1101</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1102</v>
       </c>
       <c r="C21">
         <v>9</v>
@@ -39244,10 +39746,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B22" t="s">
         <v>1103</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1104</v>
       </c>
       <c r="C22">
         <v>9</v>
@@ -39264,10 +39766,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B23" t="s">
         <v>1105</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1106</v>
       </c>
       <c r="C23">
         <v>32</v>
@@ -39284,10 +39786,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B24" t="s">
         <v>1107</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1108</v>
       </c>
       <c r="C24">
         <v>19</v>
@@ -39304,10 +39806,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B25" t="s">
         <v>1109</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1110</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -39324,10 +39826,10 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B26" t="s">
         <v>1111</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1112</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -39364,10 +39866,10 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B28" t="s">
         <v>1113</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1114</v>
       </c>
       <c r="C28">
         <v>3</v>
@@ -39384,10 +39886,10 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B29" t="s">
         <v>1115</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1116</v>
       </c>
       <c r="C29">
         <v>150</v>
@@ -39404,10 +39906,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B30" t="s">
         <v>1117</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1118</v>
       </c>
       <c r="C30">
         <v>126</v>
@@ -39424,10 +39926,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B31" t="s">
         <v>1119</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1120</v>
       </c>
       <c r="C31">
         <v>393</v>
@@ -39444,10 +39946,10 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B32" t="s">
         <v>1121</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1122</v>
       </c>
       <c r="C32">
         <v>163</v>
@@ -39464,10 +39966,10 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B33" t="s">
         <v>1123</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1124</v>
       </c>
       <c r="C33">
         <v>21</v>
@@ -39504,10 +40006,10 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B35" t="s">
         <v>1125</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1126</v>
       </c>
       <c r="C35">
         <v>22</v>
@@ -39524,10 +40026,10 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B36" t="s">
         <v>1127</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1128</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -39544,10 +40046,10 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B37" t="s">
         <v>1129</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1130</v>
       </c>
       <c r="C37">
         <v>22</v>
@@ -39564,10 +40066,10 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B38" t="s">
         <v>1131</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1132</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -39584,10 +40086,10 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B39" t="s">
         <v>1133</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1134</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -39604,10 +40106,10 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B40" t="s">
         <v>1135</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1136</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -39624,10 +40126,10 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B41" t="s">
         <v>1137</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1138</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -39664,10 +40166,10 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B43" t="s">
         <v>1139</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1140</v>
       </c>
       <c r="C43">
         <v>24</v>
@@ -39684,10 +40186,10 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B44" t="s">
         <v>1141</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1142</v>
       </c>
       <c r="C44">
         <v>79</v>
@@ -39704,10 +40206,10 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B45" t="s">
         <v>1143</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1144</v>
       </c>
       <c r="C45">
         <v>37</v>
@@ -39724,10 +40226,10 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B46" t="s">
         <v>1145</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1146</v>
       </c>
       <c r="C46">
         <v>24</v>
@@ -39744,10 +40246,10 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B47" t="s">
         <v>1147</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1148</v>
       </c>
       <c r="C47">
         <v>58</v>
@@ -39764,10 +40266,10 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B48" t="s">
         <v>1149</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1150</v>
       </c>
       <c r="C48">
         <v>25</v>
